--- a/output/aggregate_tables/Analysis Group Statistics/Area 81_summary.xlsx
+++ b/output/aggregate_tables/Analysis Group Statistics/Area 81_summary.xlsx
@@ -1536,17 +1536,39 @@
       <c r="M4" s="4" t="n">
         <v>14.54545454545454</v>
       </c>
-      <c r="N4" s="4" t="n"/>
-      <c r="O4" s="4" t="n"/>
-      <c r="P4" s="4" t="n"/>
-      <c r="Q4" s="4" t="n"/>
-      <c r="R4" s="4" t="n"/>
-      <c r="S4" s="4" t="n"/>
-      <c r="T4" s="4" t="n"/>
-      <c r="U4" s="4" t="n"/>
-      <c r="V4" s="4" t="n"/>
-      <c r="W4" s="4" t="n"/>
-      <c r="X4" s="4" t="n"/>
+      <c r="N4" s="3" t="n">
+        <v>29</v>
+      </c>
+      <c r="O4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" s="3" t="n">
+        <v>22</v>
+      </c>
+      <c r="Q4" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="R4" s="3" t="n">
+        <v>22</v>
+      </c>
+      <c r="S4" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="T4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" s="4" t="n">
+        <v>75.86206896551724</v>
+      </c>
+      <c r="V4" s="4" t="n">
+        <v>24.13793103448276</v>
+      </c>
+      <c r="W4" s="4" t="n">
+        <v>75.86206896551724</v>
+      </c>
+      <c r="X4" s="4" t="n">
+        <v>24.13793103448276</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1665,34 +1687,34 @@
         </is>
       </c>
       <c r="B4" s="11" t="n">
-        <v>0.007700717167825643</v>
+        <v>0.008118004549147738</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.3033988796945836</v>
+        <v>0.2777496285366552</v>
       </c>
       <c r="D4" s="12" t="n">
-        <v>0.01225787313759075</v>
+        <v>0.01285128261025577</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>0.3110995968624093</v>
+        <v>0.2858676330858029</v>
       </c>
       <c r="F4" s="12" t="n">
-        <v>0.01225787313759075</v>
+        <v>0.01285128261025577</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>2.381487326649866</v>
+        <v>2.717606459648396</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>93.82770087067527</v>
+        <v>92.9802613568873</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>3.790811802674839</v>
+        <v>4.302132183464314</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>96.20918819732513</v>
+        <v>95.69786781653569</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>3.790811802674839</v>
+        <v>4.302132183464314</v>
       </c>
     </row>
   </sheetData>
@@ -1810,34 +1832,34 @@
         <v>1</v>
       </c>
       <c r="B4" s="11" t="n">
-        <v>0.007159049230122704</v>
+        <v>0.007485406611444798</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.1621574125115607</v>
+        <v>0.1625118935096911</v>
       </c>
       <c r="D4" s="11" t="n">
-        <v>0.009195806781304574</v>
+        <v>0.009639030798681572</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>0.1693164617416834</v>
+        <v>0.1699973001211359</v>
       </c>
       <c r="F4" s="11" t="n">
-        <v>0.009195806781304574</v>
+        <v>0.009639030798681572</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>4.010396198175475</v>
+        <v>4.166978123587921</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>90.83824537845634</v>
+        <v>90.46716367316027</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>5.151358423368187</v>
+        <v>5.365858203251798</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>94.84864157663181</v>
+        <v>94.6341417967482</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>5.151358423368187</v>
+        <v>5.365858203251798</v>
       </c>
     </row>
     <row r="5">
@@ -1847,32 +1869,32 @@
       <c r="B5" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="C5" s="12" t="n">
-        <v>0.03037027112008275</v>
-      </c>
-      <c r="D5" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" s="12" t="n">
-        <v>0.03037027112008275</v>
-      </c>
-      <c r="F5" s="3" t="n">
-        <v>0</v>
+      <c r="C5" s="11" t="n">
+        <v>0.001512696804062577</v>
+      </c>
+      <c r="D5" s="14" t="n">
+        <v>0.0001382072872811476</v>
+      </c>
+      <c r="E5" s="11" t="n">
+        <v>0.001512696804062577</v>
+      </c>
+      <c r="F5" s="14" t="n">
+        <v>0.0001382072872811476</v>
       </c>
       <c r="G5" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="H5" s="3" t="n">
-        <v>100</v>
-      </c>
-      <c r="I5" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" s="3" t="n">
-        <v>100</v>
-      </c>
-      <c r="K5" s="3" t="n">
-        <v>0</v>
+      <c r="H5" s="4" t="n">
+        <v>91.62838786300081</v>
+      </c>
+      <c r="I5" s="4" t="n">
+        <v>8.371612136999202</v>
+      </c>
+      <c r="J5" s="4" t="n">
+        <v>91.62838786300081</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>8.371612136999202</v>
       </c>
     </row>
     <row r="6">
@@ -1880,34 +1902,34 @@
         <v>3</v>
       </c>
       <c r="B6" s="14" t="n">
-        <v>0.0005416679377029396</v>
+        <v>0.0006325979377029395</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>0.1108711960629402</v>
+        <v>0.1137250382229016</v>
       </c>
       <c r="D6" s="11" t="n">
-        <v>0.003062066356286178</v>
+        <v>0.003074044524293054</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>0.1114128640006431</v>
+        <v>0.1143576361606045</v>
       </c>
       <c r="F6" s="11" t="n">
-        <v>0.003062066356286178</v>
+        <v>0.003074044524293054</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>0.4731760360229404</v>
+        <v>0.5386944426013784</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>96.85194454126089</v>
+        <v>96.84357539602794</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>2.674879422716179</v>
+        <v>2.617730161370666</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>97.32512057728383</v>
+        <v>97.38226983862933</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>2.674879422716179</v>
+        <v>2.617730161370666</v>
       </c>
     </row>
     <row r="7">
@@ -1917,34 +1939,34 @@
         </is>
       </c>
       <c r="B7" s="11" t="n">
-        <v>0.007700717167825643</v>
+        <v>0.008118004549147738</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>0.3033988796945836</v>
+        <v>0.2777496285366552</v>
       </c>
       <c r="D7" s="12" t="n">
-        <v>0.01225787313759075</v>
+        <v>0.01285128261025577</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>0.3110995968624093</v>
+        <v>0.2858676330858029</v>
       </c>
       <c r="F7" s="12" t="n">
-        <v>0.01225787313759075</v>
+        <v>0.01285128261025577</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>2.381487326649866</v>
+        <v>2.717606459648396</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>93.82770087067527</v>
+        <v>92.9802613568873</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>3.790811802674839</v>
+        <v>4.302132183464314</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>96.20918819732513</v>
+        <v>95.69786781653569</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>3.790811802674839</v>
+        <v>4.302132183464314</v>
       </c>
     </row>
   </sheetData>
@@ -2064,19 +2086,19 @@
         </is>
       </c>
       <c r="B4" s="4" t="n">
-        <v>2.381487326649866</v>
+        <v>2.717606459648396</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>93.82770087067527</v>
+        <v>92.9802613568873</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>3.790811802674839</v>
+        <v>4.302132183464314</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>96.20918819732513</v>
+        <v>95.69786781653569</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>3.790811802674839</v>
+        <v>4.302132183464314</v>
       </c>
       <c r="G4" s="3" t="n">
         <v>0</v>
@@ -2085,13 +2107,13 @@
         <v>97.26179956602435</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>2.738200433975654</v>
+        <v>2.738200433975653</v>
       </c>
       <c r="J4" s="4" t="n">
         <v>97.26179956602435</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>2.738200433975654</v>
+        <v>2.738200433975653</v>
       </c>
     </row>
   </sheetData>

--- a/output/aggregate_tables/Analysis Group Statistics/Area 81_summary.xlsx
+++ b/output/aggregate_tables/Analysis Group Statistics/Area 81_summary.xlsx
@@ -2104,16 +2104,16 @@
         <v>0</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>97.26179956602435</v>
+        <v>97.25735502488305</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>2.738200433975653</v>
+        <v>2.742644975116943</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>97.26179956602435</v>
+        <v>97.25735502488305</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>2.738200433975653</v>
+        <v>2.742644975116943</v>
       </c>
     </row>
   </sheetData>
